--- a/public/template/Template_Import.xlsx
+++ b/public/template/Template_Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shandy\Kuliah\PKL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC46F790-3DAD-4ED9-97AD-6D3742E6996F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C483BF5-2E67-45FB-892C-B8D4D2884C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{8461CB80-048A-4CBD-8C94-E9ECBA73705C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8461CB80-048A-4CBD-8C94-E9ECBA73705C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>tempat</t>
   </si>
@@ -67,13 +67,64 @@
   </si>
   <si>
     <t>lantai</t>
+  </si>
+  <si>
+    <t>Jenis_id</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Status_id</t>
+  </si>
+  <si>
+    <t>Kondisi_id</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>Terpasang</t>
+  </si>
+  <si>
+    <t>Tidak Terpasang</t>
+  </si>
+  <si>
+    <t>Aktif</t>
+  </si>
+  <si>
+    <t>Dalam Perbaikan</t>
+  </si>
+  <si>
+    <t>Nonaktif</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Access Point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jika Anda menambahkan jenis baru pada aplikasi, gunakan ID berikutnya yang tersedia di sistem. </t>
+  </si>
+  <si>
+    <t>Catatan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,8 +138,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +164,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA3A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,18 +255,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFA3A3"/>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -449,15 +603,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6816D2-2EC3-46ED-A307-730B9914A0A0}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="4.7109375" customWidth="1"/>
+    <col min="16" max="16" width="26.42578125" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" customWidth="1"/>
+    <col min="18" max="18" width="25.7109375" customWidth="1"/>
+    <col min="19" max="19" width="5.42578125" customWidth="1"/>
+    <col min="20" max="20" width="32.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,17 +654,121 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
+      <c r="O2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I3" s="4"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
+      <c r="O3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="9"/>
+      <c r="S3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="10"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="O9:T9"/>
+    <mergeCell ref="O8:T8"/>
+  </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 K2:K3 H2:H3" xr:uid="{F3F4B8CC-2B2E-46CA-84FA-D9166ADC7E04}">
       <formula1>"1,2,3"</formula1>
